--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.572976999999999</v>
+        <v>5.94498</v>
       </c>
       <c r="H2">
-        <v>22.718931</v>
+        <v>17.83494</v>
       </c>
       <c r="I2">
-        <v>0.4497670593913077</v>
+        <v>0.4679240463447598</v>
       </c>
       <c r="J2">
-        <v>0.4497670593913078</v>
+        <v>0.4679240463447597</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N2">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O2">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P2">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q2">
-        <v>16.50736069691833</v>
+        <v>9.34589894702</v>
       </c>
       <c r="R2">
-        <v>148.566246272265</v>
+        <v>84.11309052318001</v>
       </c>
       <c r="S2">
-        <v>0.1056640738831396</v>
+        <v>0.08234116969335671</v>
       </c>
       <c r="T2">
-        <v>0.1056640738831396</v>
+        <v>0.0823411696933567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.572976999999999</v>
+        <v>5.94498</v>
       </c>
       <c r="H3">
-        <v>22.718931</v>
+        <v>17.83494</v>
       </c>
       <c r="I3">
-        <v>0.4497670593913077</v>
+        <v>0.4679240463447598</v>
       </c>
       <c r="J3">
-        <v>0.4497670593913078</v>
+        <v>0.4679240463447597</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.713403</v>
       </c>
       <c r="O3">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P3">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q3">
-        <v>32.092769503577</v>
+        <v>25.19364218898</v>
       </c>
       <c r="R3">
-        <v>288.834925532193</v>
+        <v>226.74277970082</v>
       </c>
       <c r="S3">
-        <v>0.2054267081335167</v>
+        <v>0.2219662312246563</v>
       </c>
       <c r="T3">
-        <v>0.2054267081335167</v>
+        <v>0.2219662312246563</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.572976999999999</v>
+        <v>5.94498</v>
       </c>
       <c r="H4">
-        <v>22.718931</v>
+        <v>17.83494</v>
       </c>
       <c r="I4">
-        <v>0.4497670593913077</v>
+        <v>0.4679240463447598</v>
       </c>
       <c r="J4">
-        <v>0.4497670593913078</v>
+        <v>0.4679240463447597</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N4">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O4">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P4">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q4">
-        <v>21.664689298853</v>
+        <v>18.5708393493</v>
       </c>
       <c r="R4">
-        <v>194.982203689677</v>
+        <v>167.1375541437</v>
       </c>
       <c r="S4">
-        <v>0.1386762773746515</v>
+        <v>0.1636166454267468</v>
       </c>
       <c r="T4">
-        <v>0.1386762773746515</v>
+        <v>0.1636166454267467</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,43 +723,43 @@
         <v>2.784025666666667</v>
       </c>
       <c r="H5">
-        <v>8.352077000000001</v>
+        <v>8.352077</v>
       </c>
       <c r="I5">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="J5">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N5">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O5">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P5">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q5">
-        <v>6.068540267472779</v>
+        <v>4.376671165685445</v>
       </c>
       <c r="R5">
-        <v>54.61686240725501</v>
+        <v>39.390040491169</v>
       </c>
       <c r="S5">
-        <v>0.03884489464780147</v>
+        <v>0.03856025249027929</v>
       </c>
       <c r="T5">
-        <v>0.03884489464780146</v>
+        <v>0.03856025249027928</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>2.784025666666667</v>
       </c>
       <c r="H6">
-        <v>8.352077000000001</v>
+        <v>8.352077</v>
       </c>
       <c r="I6">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="J6">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>12.713403</v>
       </c>
       <c r="O6">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P6">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q6">
         <v>11.79814675422567</v>
@@ -818,10 +818,10 @@
         <v>106.183320788031</v>
       </c>
       <c r="S6">
-        <v>0.07552026476015349</v>
+        <v>0.1039464699397998</v>
       </c>
       <c r="T6">
-        <v>0.07552026476015347</v>
+        <v>0.1039464699397998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>2.784025666666667</v>
       </c>
       <c r="H7">
-        <v>8.352077000000001</v>
+        <v>8.352077</v>
       </c>
       <c r="I7">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="J7">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N7">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O7">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P7">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q7">
-        <v>7.964510002917669</v>
+        <v>8.696697617148333</v>
       </c>
       <c r="R7">
-        <v>71.68059002625903</v>
+        <v>78.27027855433499</v>
       </c>
       <c r="S7">
-        <v>0.05098104953558102</v>
+        <v>0.07662144201695587</v>
       </c>
       <c r="T7">
-        <v>0.05098104953558101</v>
+        <v>0.07662144201695585</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.480551000000001</v>
+        <v>3.976005</v>
       </c>
       <c r="H8">
-        <v>19.441653</v>
+        <v>11.928015</v>
       </c>
       <c r="I8">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="J8">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N8">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O8">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P8">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q8">
-        <v>14.12612145418834</v>
+        <v>6.250540950995001</v>
       </c>
       <c r="R8">
-        <v>127.135093087695</v>
+        <v>56.254868558955</v>
       </c>
       <c r="S8">
-        <v>0.09042169541350173</v>
+        <v>0.05506980719979458</v>
       </c>
       <c r="T8">
-        <v>0.09042169541350174</v>
+        <v>0.05506980719979457</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.480551000000001</v>
+        <v>3.976005</v>
       </c>
       <c r="H9">
-        <v>19.441653</v>
+        <v>11.928015</v>
       </c>
       <c r="I9">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="J9">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>12.713403</v>
       </c>
       <c r="O9">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P9">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q9">
-        <v>27.46328550835101</v>
+        <v>16.849517965005</v>
       </c>
       <c r="R9">
-        <v>247.169569575159</v>
+        <v>151.645661685045</v>
       </c>
       <c r="S9">
-        <v>0.1757932526166883</v>
+        <v>0.1484511041551678</v>
       </c>
       <c r="T9">
-        <v>0.1757932526166883</v>
+        <v>0.1484511041551678</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.480551000000001</v>
+        <v>3.976005</v>
       </c>
       <c r="H10">
-        <v>19.441653</v>
+        <v>11.928015</v>
       </c>
       <c r="I10">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="J10">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N10">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O10">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P10">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q10">
-        <v>18.539489014739</v>
+        <v>12.420184778925</v>
       </c>
       <c r="R10">
-        <v>166.8554011326511</v>
+        <v>111.781663010325</v>
       </c>
       <c r="S10">
-        <v>0.1186717836349662</v>
+        <v>0.109426877853243</v>
       </c>
       <c r="T10">
-        <v>0.1186717836349662</v>
+        <v>0.1094268778532429</v>
       </c>
     </row>
   </sheetData>
